--- a/data/financial_statements/soci/EMR.xlsx
+++ b/data/financial_statements/soci/EMR.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>5362000000</v>
+        <v>5360000000</v>
       </c>
       <c r="C2">
-        <v>5006000000</v>
+        <v>5005000000</v>
       </c>
       <c r="D2">
         <v>4791000000</v>
       </c>
       <c r="E2">
-        <v>4472000000</v>
+        <v>4473000000</v>
       </c>
       <c r="F2">
-        <v>4946000000</v>
+        <v>4947000000</v>
       </c>
       <c r="G2">
         <v>4697000000</v>
@@ -739,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.08409999999999999</v>
+        <v>0.0835</v>
       </c>
       <c r="C3">
-        <v>0.0658</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="D3">
         <v>0.08119999999999999</v>
       </c>
       <c r="E3">
-        <v>0.0747</v>
+        <v>0.075</v>
       </c>
       <c r="F3">
-        <v>0.0851</v>
+        <v>0.0853</v>
       </c>
       <c r="G3">
         <v>0.2001</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>3181000000</v>
+        <v>3043000000</v>
       </c>
       <c r="C4">
-        <v>3021000000</v>
+        <v>2908000000</v>
       </c>
       <c r="D4">
-        <v>2916000000</v>
+        <v>2839000000</v>
       </c>
       <c r="E4">
-        <v>2723000000</v>
+        <v>2651000000</v>
       </c>
       <c r="F4">
-        <v>3040000000</v>
+        <v>2951000000</v>
       </c>
       <c r="G4">
         <v>2715000000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>2181000000</v>
+        <v>2317000000</v>
       </c>
       <c r="C5">
-        <v>1985000000</v>
+        <v>2097000000</v>
       </c>
       <c r="D5">
-        <v>1875000000</v>
+        <v>1952000000</v>
       </c>
       <c r="E5">
-        <v>1749000000</v>
+        <v>1822000000</v>
       </c>
       <c r="F5">
-        <v>1906000000</v>
+        <v>1996000000</v>
       </c>
       <c r="G5">
         <v>1982000000</v>
@@ -1105,8 +1216,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1136000000</v>
@@ -1227,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1181000000</v>
@@ -1349,8 +1460,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>70000000</v>
@@ -1390,23 +1501,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>17000000</v>
+        <v>53000000</v>
       </c>
       <c r="C9">
-        <v>11000000</v>
+        <v>50000000</v>
       </c>
       <c r="D9">
-        <v>4000000</v>
+        <v>52000000</v>
       </c>
       <c r="E9">
-        <v>3000000</v>
+        <v>38000000</v>
       </c>
       <c r="F9">
-        <v>3000000</v>
+        <v>39000000</v>
       </c>
       <c r="G9">
         <v>37000000</v>
@@ -1512,23 +1623,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>158000000</v>
+        <v>-277000000</v>
       </c>
       <c r="C10">
-        <v>626000000</v>
+        <v>150000000</v>
       </c>
       <c r="D10">
-        <v>41000000</v>
+        <v>-92000000</v>
       </c>
       <c r="E10">
-        <v>387000000</v>
+        <v>-89000000</v>
       </c>
       <c r="F10">
-        <v>29000000</v>
+        <v>-114000000</v>
       </c>
       <c r="G10">
         <v>-125000000</v>
@@ -1634,8 +1745,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>904000000</v>
@@ -1756,8 +1867,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>196000000</v>
@@ -1878,8 +1989,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>708000000</v>
@@ -2000,8 +2111,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>-32000000</v>
@@ -2122,8 +2233,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>740000000</v>
@@ -2244,8 +2355,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1.24</v>
@@ -2260,7 +2371,7 @@
         <v>1.5</v>
       </c>
       <c r="F16">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="G16">
         <v>1.04</v>
@@ -2366,8 +2477,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1.24</v>
@@ -2382,7 +2493,7 @@
         <v>1.5</v>
       </c>
       <c r="F17">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="G17">
         <v>1.04</v>
@@ -2488,23 +2599,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>591000000</v>
+        <v>592900000</v>
       </c>
       <c r="C18">
-        <v>593000000</v>
+        <v>592800000</v>
       </c>
       <c r="D18">
-        <v>593000000</v>
+        <v>593300000</v>
       </c>
       <c r="E18">
-        <v>595000000</v>
+        <v>594600000</v>
       </c>
       <c r="F18">
-        <v>596000000</v>
+        <v>598100000</v>
       </c>
       <c r="G18">
         <v>598200000</v>
@@ -2610,23 +2721,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>595000000</v>
+        <v>596300000</v>
       </c>
       <c r="C19">
-        <v>596000000</v>
+        <v>596200000</v>
       </c>
       <c r="D19">
-        <v>597000000</v>
+        <v>596500000</v>
       </c>
       <c r="E19">
-        <v>598000000</v>
+        <v>598100000</v>
       </c>
       <c r="F19">
-        <v>601000000</v>
+        <v>601800000</v>
       </c>
       <c r="G19">
         <v>602100000</v>
@@ -2732,23 +2843,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.4068</v>
+        <v>0.4323</v>
       </c>
       <c r="C20">
-        <v>0.3965</v>
+        <v>0.419</v>
       </c>
       <c r="D20">
-        <v>0.3914</v>
+        <v>0.4074</v>
       </c>
       <c r="E20">
-        <v>0.3911</v>
+        <v>0.4073</v>
       </c>
       <c r="F20">
-        <v>0.3854</v>
+        <v>0.4035</v>
       </c>
       <c r="G20">
         <v>0.422</v>
@@ -2854,14 +2965,14 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.2203</v>
       </c>
       <c r="C21">
-        <v>0.2087</v>
+        <v>0.2088</v>
       </c>
       <c r="D21">
         <v>0.1885</v>
@@ -2870,7 +2981,7 @@
         <v>0.2826</v>
       </c>
       <c r="F21">
-        <v>0.1905</v>
+        <v>0.1904</v>
       </c>
       <c r="G21">
         <v>0.1935</v>
@@ -2976,14 +3087,14 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.1686</v>
+        <v>0.1687</v>
       </c>
       <c r="C22">
-        <v>0.2387</v>
+        <v>0.2388</v>
       </c>
       <c r="D22">
         <v>0.1693</v>
@@ -3098,11 +3209,11 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.138</v>
+        <v>0.1381</v>
       </c>
       <c r="C23">
         <v>0.184</v>
@@ -3111,10 +3222,10 @@
         <v>0.1407</v>
       </c>
       <c r="E23">
-        <v>0.2004</v>
+        <v>0.2003</v>
       </c>
       <c r="F23">
-        <v>0.1355</v>
+        <v>0.1354</v>
       </c>
       <c r="G23">
         <v>0.1335</v>
@@ -3220,23 +3331,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>1362000000</v>
+        <v>1498000000</v>
       </c>
       <c r="C24">
-        <v>1203000000</v>
+        <v>1315000000</v>
       </c>
       <c r="D24">
-        <v>1047000000</v>
+        <v>1124000000</v>
       </c>
       <c r="E24">
-        <v>969000000</v>
+        <v>1495000000</v>
       </c>
       <c r="F24">
-        <v>1101000000</v>
+        <v>1191000000</v>
       </c>
       <c r="G24">
         <v>1146000000</v>
@@ -3342,8 +3453,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>1181000000</v>
@@ -3464,8 +3575,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>708000000</v>
@@ -3586,8 +3697,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="V27">
         <v>8000000</v>
@@ -3615,8 +3726,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>708000000</v>
@@ -3737,8 +3848,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.1989</v>
@@ -3859,8 +3970,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.192</v>
@@ -3981,8 +4092,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="V31">
         <v>0.01</v>
@@ -4010,8 +4121,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="V32">
         <v>0.01</v>
@@ -4039,8 +4150,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1.1989</v>
@@ -4161,8 +4272,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1.192</v>
@@ -4283,8 +4394,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>594500000</v>
@@ -4405,23 +4516,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.254</v>
+        <v>0.2795</v>
       </c>
       <c r="C36">
-        <v>0.2403</v>
+        <v>0.2627</v>
       </c>
       <c r="D36">
-        <v>0.2185</v>
+        <v>0.2346</v>
       </c>
       <c r="E36">
-        <v>0.2167</v>
+        <v>0.3342</v>
       </c>
       <c r="F36">
-        <v>0.2226</v>
+        <v>0.2408</v>
       </c>
       <c r="G36">
         <v>0.244</v>
@@ -4527,14 +4638,14 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.227</v>
+        <v>0.2271</v>
       </c>
       <c r="C37">
-        <v>0.1478</v>
+        <v>0.1479</v>
       </c>
       <c r="D37">
         <v>0.09229999999999999</v>
@@ -4543,7 +4654,7 @@
         <v>0.1169</v>
       </c>
       <c r="F37">
-        <v>0.1729</v>
+        <v>0.1728</v>
       </c>
       <c r="G37">
         <v>0.2353</v>
